--- a/Modelos/eAtasOrais.Espanol.xlsx
+++ b/Modelos/eAtasOrais.Espanol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JRD soluções\eAtasOrais\Modelos\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\GitHub\eAtasOrais\eAtasOrais\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12C6DE-9ED6-451F-8B36-CF2D7B808AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC63DD9-D278-489F-A284-D93CA12207A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5256D096-7C5A-4AEA-804E-C7AE48760200}"/>
   </bookViews>
@@ -491,12 +491,90 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,84 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,92 +621,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>79073</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>113775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>441324</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>112795</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAB72DE-DB3A-4533-8D47-E5C2394A2C3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="1739" t="5780" r="86739" b="34498"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="79073" y="113775"/>
-          <a:ext cx="1581451" cy="941995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>32582</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F24DCB7-F00E-424B-9573-6CFBB837ACB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="41976" t="1948" r="43136" b="23696"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4924425" y="57151"/>
-          <a:ext cx="1600200" cy="918406"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -777,6 +691,63 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101563</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BD3EF0-DF16-41EF-BEBE-41E2AE1ABCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="123825"/>
+          <a:ext cx="1063588" cy="1019176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1083,7 +1054,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+      <selection sqref="A1:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,160 +1065,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="29" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="30"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="20" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20" t="s">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="20"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -1275,17 +1246,17 @@
       <c r="O7" s="5">
         <v>9</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1296,20 +1267,20 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="11" t="str">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="35" t="str">
         <f>IF(G8 = "", " ", SUM(G8:Q8))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S8" s="12"/>
+      <c r="S8" s="36"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1320,20 +1291,20 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13" t="str">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="39" t="str">
         <f t="shared" ref="R9:R27" si="0">IF(G9 = "", " ", SUM(G9:Q9))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S9" s="14"/>
+      <c r="S9" s="40"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1344,20 +1315,20 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="11" t="str">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S10" s="12"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1368,20 +1339,20 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="13" t="str">
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="40"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1392,20 +1363,20 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="11" t="str">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S12" s="12"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1416,20 +1387,20 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="13" t="str">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="40"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1440,20 +1411,20 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="11" t="str">
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S14" s="12"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1464,20 +1435,20 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="13" t="str">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S15" s="14"/>
+      <c r="S15" s="40"/>
     </row>
     <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1488,20 +1459,20 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="11" t="str">
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S16" s="12"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1512,20 +1483,20 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="13" t="str">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S17" s="14"/>
+      <c r="S17" s="40"/>
     </row>
     <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1536,20 +1507,20 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="11" t="str">
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S18" s="12"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1560,20 +1531,20 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13" t="str">
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S19" s="14"/>
+      <c r="S19" s="40"/>
     </row>
     <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1584,20 +1555,20 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="11" t="str">
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S20" s="12"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -1608,20 +1579,20 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="13" t="str">
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S21" s="14"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1632,20 +1603,20 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="11" t="str">
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S22" s="12"/>
+      <c r="S22" s="36"/>
     </row>
     <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -1656,20 +1627,20 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="13" t="str">
+      <c r="P23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S23" s="14"/>
+      <c r="S23" s="40"/>
     </row>
     <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1680,20 +1651,20 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="11" t="str">
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S24" s="12"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1704,20 +1675,20 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="13" t="str">
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S25" s="14"/>
+      <c r="S25" s="40"/>
     </row>
     <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1728,20 +1699,20 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="11" t="str">
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S26" s="12"/>
+      <c r="S26" s="36"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1752,27 +1723,27 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="13" t="str">
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="39" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S27" s="14"/>
+      <c r="S27" s="40"/>
     </row>
     <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1784,16 +1755,16 @@
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1805,22 +1776,22 @@
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1832,20 +1803,20 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1857,24 +1828,24 @@
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17">
+      <c r="D32" s="38"/>
+      <c r="E32" s="38">
         <v>8</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17">
+      <c r="F32" s="38"/>
+      <c r="G32" s="38">
         <v>10</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1886,24 +1857,24 @@
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38">
         <v>9</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38">
         <v>9</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1916,52 +1887,32 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="Q3:S4"/>
-    <mergeCell ref="A6:E7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A28:J29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
     <mergeCell ref="G32:J32"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="P8:Q8"/>
@@ -1978,32 +1929,52 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A28:J29"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="Q3:S4"/>
+    <mergeCell ref="A6:E7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="R8:S27">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
